--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D9314A-D9B9-4D14-8E96-FA7093E7213B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673DCFE-C9E6-4B0E-8799-67386B792793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="414">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -176,15 +176,6 @@
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
-  </si>
-  <si>
-    <t>subject_application_id:</t>
-  </si>
-  <si>
-    <t>subject_application_vendor:</t>
-  </si>
-  <si>
-    <t>subject_application_version:</t>
   </si>
   <si>
     <t>ID</t>
@@ -1948,6 +1939,86 @@
   </si>
   <si>
     <t>2023-01-30T18:13:02Z</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: AGFA_GEVAERT_SPA</t>
+  </si>
+  <si>
+    <t>subject_application_id: ELEFANTE.NET</t>
+  </si>
+  <si>
+    <t>subject_application_version: 2</t>
+  </si>
+  <si>
+    <t>L'applicativo gestisce le sezioni opzionali: "Storia Clinica", "Conclusioni" e "Suggerimenti per il medico prescrittore"
+Sezione opzionale "Precedenti esami eseguiti" non gestita dall'applicativo
+Sezione opzionale "DICOM Object Catalog" non gestita dall'applicativo</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore di sintassi.
+"ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'."</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore semantico.
+"[Errore-46| codice fiscale 'bnxnxx34c14f205s' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore semantico.
+"[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore semantico.
+"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ]"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore semantico.
+"[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore vocabolario.
+"Almeno uno dei seguenti vocaboli non e' censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: N]"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore semantico.
+"[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore semantico.
+"[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ]"</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore di sintassi.
+"ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.""</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore di sintassi.
+"ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'."</t>
+  </si>
+  <si>
+    <t>Errore validazione:
+Dettaglio:
+Errore di sintassi.
+"ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'component' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":section}' is expected."</t>
   </si>
 </sst>
 </file>
@@ -3876,10 +3947,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3897,7 +3968,7 @@
     <col min="16" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1">
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -3909,7 +3980,7 @@
       <c r="N1" s="10"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
+    <row r="2" spans="1:15" ht="33" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>8</v>
       </c>
@@ -3927,13 +3998,13 @@
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="54" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="8"/>
@@ -3947,11 +4018,11 @@
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1">
       <c r="A4" s="50"/>
       <c r="B4" s="51"/>
       <c r="C4" s="54" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="2"/>
@@ -3966,11 +4037,11 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1">
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="8"/>
@@ -3984,7 +4055,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
       <c r="C6" s="12"/>
@@ -3999,7 +4070,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4028,49 +4099,49 @@
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="N9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1">
@@ -4078,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -4105,16 +4176,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -4132,16 +4203,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -4159,16 +4230,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
@@ -4186,16 +4257,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
@@ -4213,16 +4284,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
@@ -4240,16 +4311,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
@@ -4267,16 +4338,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
@@ -4294,16 +4365,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
@@ -4321,39 +4392,39 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" s="20">
         <v>44953</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -4362,39 +4433,39 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" s="20">
         <v>44953</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O20" s="24"/>
     </row>
@@ -4403,39 +4474,41 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" s="20">
         <v>44953</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="M21" s="22"/>
+        <v>317</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>402</v>
+      </c>
       <c r="N21" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O21" s="24"/>
     </row>
@@ -4444,39 +4517,39 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="20">
         <v>44953</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O22" s="24"/>
     </row>
@@ -4485,16 +4558,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
@@ -4512,16 +4585,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="E24" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
@@ -4539,16 +4612,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
@@ -4566,16 +4639,16 @@
         <v>19</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
@@ -4593,16 +4666,16 @@
         <v>20</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="21"/>
@@ -4620,16 +4693,16 @@
         <v>21</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="E28" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="21"/>
@@ -4647,16 +4720,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
@@ -4674,16 +4747,16 @@
         <v>23</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
@@ -4701,16 +4774,16 @@
         <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
@@ -4728,16 +4801,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="E32" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
@@ -4755,16 +4828,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
@@ -4782,16 +4855,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21"/>
@@ -4809,16 +4882,16 @@
         <v>28</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21"/>
@@ -4829,7 +4902,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O35" s="24"/>
     </row>
@@ -4838,16 +4911,16 @@
         <v>29</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
@@ -4858,7 +4931,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O36" s="24"/>
     </row>
@@ -4867,43 +4940,43 @@
         <v>31</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F37" s="20">
         <v>44957</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H37" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>375</v>
-      </c>
       <c r="N37" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O37" s="24"/>
     </row>
@@ -4912,16 +4985,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="21"/>
@@ -4932,7 +5005,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O38" s="24"/>
     </row>
@@ -4941,16 +5014,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
@@ -4961,7 +5034,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O39" s="24"/>
     </row>
@@ -4970,16 +5043,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="21"/>
@@ -4990,7 +5063,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O40" s="24"/>
     </row>
@@ -4999,16 +5072,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21"/>
@@ -5019,7 +5092,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O41" s="24"/>
     </row>
@@ -5028,16 +5101,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
@@ -5048,7 +5121,7 @@
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O42" s="24"/>
     </row>
@@ -5057,43 +5130,43 @@
         <v>39</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F43" s="20">
         <v>44957</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O43" s="24"/>
     </row>
@@ -5102,16 +5175,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="21"/>
@@ -5122,7 +5195,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O44" s="24"/>
     </row>
@@ -5131,16 +5204,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
@@ -5151,7 +5224,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O45" s="24"/>
     </row>
@@ -5160,16 +5233,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
@@ -5180,7 +5253,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O46" s="24"/>
     </row>
@@ -5189,16 +5262,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
@@ -5209,7 +5282,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O47" s="24"/>
     </row>
@@ -5218,16 +5291,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
@@ -5238,7 +5311,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O48" s="24"/>
     </row>
@@ -5247,43 +5320,43 @@
         <v>47</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F49" s="20">
         <v>44957</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J49" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="M49" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="K49" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>381</v>
-      </c>
       <c r="N49" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O49" s="24"/>
     </row>
@@ -5292,16 +5365,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="21"/>
@@ -5312,7 +5385,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O50" s="24"/>
     </row>
@@ -5321,16 +5394,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
@@ -5341,7 +5414,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O51" s="24"/>
     </row>
@@ -5350,16 +5423,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
@@ -5370,7 +5443,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O52" s="24"/>
     </row>
@@ -5379,16 +5452,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
@@ -5399,7 +5472,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O53" s="24"/>
     </row>
@@ -5408,16 +5481,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="21"/>
@@ -5428,7 +5501,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O54" s="24"/>
     </row>
@@ -5437,16 +5510,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="21"/>
@@ -5457,7 +5530,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O55" s="24"/>
     </row>
@@ -5466,16 +5539,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
@@ -5486,7 +5559,7 @@
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O56" s="24"/>
     </row>
@@ -5495,16 +5568,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
@@ -5515,7 +5588,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O57" s="24"/>
     </row>
@@ -5524,16 +5597,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="21"/>
@@ -5544,7 +5617,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
       <c r="N58" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O58" s="24"/>
     </row>
@@ -5553,16 +5626,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="21"/>
@@ -5573,7 +5646,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O59" s="24"/>
     </row>
@@ -5582,16 +5655,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="21"/>
@@ -5602,7 +5675,7 @@
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O60" s="24"/>
     </row>
@@ -5611,16 +5684,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
@@ -5631,7 +5704,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O61" s="24"/>
     </row>
@@ -5640,16 +5713,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="21"/>
@@ -5660,7 +5733,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O62" s="24"/>
     </row>
@@ -5669,16 +5742,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="21"/>
@@ -5689,7 +5762,7 @@
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O63" s="24"/>
     </row>
@@ -5698,16 +5771,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
@@ -5718,7 +5791,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O64" s="24"/>
     </row>
@@ -5727,16 +5800,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="21"/>
@@ -5747,7 +5820,7 @@
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O65" s="24"/>
     </row>
@@ -5756,16 +5829,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="21"/>
@@ -5776,7 +5849,7 @@
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O66" s="24"/>
     </row>
@@ -5785,16 +5858,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="21"/>
@@ -5805,7 +5878,7 @@
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O67" s="24"/>
     </row>
@@ -5814,16 +5887,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="21"/>
@@ -5834,7 +5907,7 @@
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O68" s="24"/>
     </row>
@@ -5843,16 +5916,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="21"/>
@@ -5863,7 +5936,7 @@
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O69" s="24"/>
     </row>
@@ -5872,16 +5945,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="21"/>
@@ -5892,7 +5965,7 @@
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O70" s="24"/>
     </row>
@@ -5901,16 +5974,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="21"/>
@@ -5921,7 +5994,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O71" s="24"/>
     </row>
@@ -5930,16 +6003,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
@@ -5950,7 +6023,7 @@
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O72" s="24"/>
     </row>
@@ -5959,16 +6032,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="21"/>
@@ -5979,7 +6052,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O73" s="24"/>
     </row>
@@ -5988,16 +6061,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
@@ -6008,7 +6081,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O74" s="24"/>
     </row>
@@ -6017,16 +6090,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
@@ -6037,7 +6110,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O75" s="24"/>
     </row>
@@ -6046,41 +6119,43 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F76" s="20">
         <v>44953</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I76" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="J76" s="22"/>
+        <v>321</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>403</v>
+      </c>
       <c r="K76" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O76" s="24"/>
     </row>
@@ -6089,41 +6164,43 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F77" s="20">
         <v>44956</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I77" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="J77" s="22"/>
+        <v>323</v>
+      </c>
+      <c r="J77" s="22" t="s">
+        <v>404</v>
+      </c>
       <c r="K77" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O77" s="24"/>
     </row>
@@ -6132,41 +6209,43 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F78" s="20">
         <v>44956</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I78" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="J78" s="22"/>
+        <v>325</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>405</v>
+      </c>
       <c r="K78" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N78" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O78" s="24"/>
     </row>
@@ -6175,41 +6254,43 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F79" s="20">
         <v>44956</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="J79" s="22"/>
+        <v>327</v>
+      </c>
+      <c r="J79" s="22" t="s">
+        <v>406</v>
+      </c>
       <c r="K79" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O79" s="24"/>
     </row>
@@ -6218,41 +6299,43 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F80" s="20">
         <v>44956</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="J80" s="22"/>
+        <v>329</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>407</v>
+      </c>
       <c r="K80" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N80" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O80" s="24"/>
     </row>
@@ -6261,41 +6344,43 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F81" s="20">
         <v>44956</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="J81" s="22"/>
+        <v>331</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>408</v>
+      </c>
       <c r="K81" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O81" s="24"/>
     </row>
@@ -6304,44 +6389,46 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F82" s="20">
         <v>44956</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="J82" s="22"/>
+        <v>333</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>409</v>
+      </c>
       <c r="K82" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="14.25" customHeight="1">
@@ -6349,41 +6436,43 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F83" s="20">
         <v>44956</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="J83" s="22"/>
+        <v>336</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>410</v>
+      </c>
       <c r="K83" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O83" s="24"/>
     </row>
@@ -6392,41 +6481,43 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F84" s="20">
         <v>44956</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="J84" s="22"/>
+        <v>338</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>411</v>
+      </c>
       <c r="K84" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O84" s="24"/>
     </row>
@@ -6435,41 +6526,43 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F85" s="20">
         <v>44956</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="J85" s="22"/>
+        <v>340</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>412</v>
+      </c>
       <c r="K85" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O85" s="24"/>
     </row>
@@ -6478,44 +6571,46 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F86" s="20">
         <v>44956</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="J86" s="22"/>
+        <v>342</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>413</v>
+      </c>
       <c r="K86" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1">
@@ -6523,16 +6618,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="21"/>
@@ -6540,14 +6635,14 @@
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L87" s="22"/>
       <c r="M87" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N87" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O87" s="24"/>
     </row>
@@ -6556,16 +6651,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="21"/>
@@ -6573,14 +6668,14 @@
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L88" s="22"/>
       <c r="M88" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O88" s="24"/>
     </row>
@@ -6589,16 +6684,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="21"/>
@@ -6606,14 +6701,14 @@
       <c r="I89" s="21"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L89" s="22"/>
       <c r="M89" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N89" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O89" s="24"/>
     </row>
@@ -6622,16 +6717,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
@@ -6639,14 +6734,14 @@
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L90" s="22"/>
       <c r="M90" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N90" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O90" s="24"/>
     </row>
@@ -6655,16 +6750,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
@@ -6672,14 +6767,14 @@
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L91" s="22"/>
       <c r="M91" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O91" s="24"/>
     </row>
@@ -6688,16 +6783,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
@@ -6705,14 +6800,14 @@
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L92" s="22"/>
       <c r="M92" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O92" s="24"/>
     </row>
@@ -6721,16 +6816,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
@@ -6738,14 +6833,14 @@
       <c r="I93" s="21"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L93" s="22"/>
       <c r="M93" s="22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O93" s="24"/>
     </row>
@@ -6754,41 +6849,43 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F94" s="20">
         <v>44956</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="J94" s="22"/>
+        <v>345</v>
+      </c>
+      <c r="J94" s="22" t="s">
+        <v>409</v>
+      </c>
       <c r="K94" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O94" s="24"/>
     </row>
@@ -6797,16 +6894,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
@@ -6817,7 +6914,7 @@
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O95" s="24"/>
     </row>
@@ -6826,16 +6923,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
@@ -6846,7 +6943,7 @@
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O96" s="24"/>
     </row>
@@ -6855,16 +6952,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F97" s="20"/>
       <c r="G97" s="21"/>
@@ -6875,7 +6972,7 @@
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
       <c r="N97" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O97" s="24"/>
     </row>
@@ -6884,16 +6981,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="21"/>
@@ -6904,7 +7001,7 @@
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O98" s="24"/>
     </row>
@@ -6913,16 +7010,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="21"/>
@@ -6933,7 +7030,7 @@
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
       <c r="N99" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O99" s="24"/>
     </row>
@@ -6942,16 +7039,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
@@ -6962,7 +7059,7 @@
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
       <c r="N100" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O100" s="24"/>
     </row>
@@ -6971,16 +7068,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="21"/>
@@ -6991,7 +7088,7 @@
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O101" s="24"/>
     </row>
@@ -7000,16 +7097,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="21"/>
@@ -7020,7 +7117,7 @@
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O102" s="24"/>
     </row>
@@ -7029,16 +7126,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="21"/>
@@ -7049,7 +7146,7 @@
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O103" s="24"/>
     </row>
@@ -7058,16 +7155,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="21"/>
@@ -7078,7 +7175,7 @@
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O104" s="24"/>
     </row>
@@ -7087,16 +7184,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="21"/>
@@ -7107,7 +7204,7 @@
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O105" s="24"/>
     </row>
@@ -7116,16 +7213,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="21"/>
@@ -7136,7 +7233,7 @@
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O106" s="24"/>
     </row>
@@ -7145,16 +7242,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="21"/>
@@ -7165,7 +7262,7 @@
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O107" s="24"/>
     </row>
@@ -7174,16 +7271,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="21"/>
@@ -7194,7 +7291,7 @@
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
       <c r="N108" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O108" s="24"/>
     </row>
@@ -7203,16 +7300,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="21"/>
@@ -7223,7 +7320,7 @@
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O109" s="24"/>
     </row>
@@ -7232,16 +7329,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="21"/>
@@ -7252,7 +7349,7 @@
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
       <c r="N110" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O110" s="24"/>
     </row>
@@ -7261,16 +7358,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="21"/>
@@ -7281,7 +7378,7 @@
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O111" s="24"/>
     </row>
@@ -7290,16 +7387,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
@@ -7310,7 +7407,7 @@
       <c r="L112" s="22"/>
       <c r="M112" s="22"/>
       <c r="N112" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O112" s="24"/>
     </row>
@@ -7319,16 +7416,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="21"/>
@@ -7339,7 +7436,7 @@
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
       <c r="N113" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O113" s="24"/>
     </row>
@@ -7348,16 +7445,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="21"/>
@@ -7368,7 +7465,7 @@
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
       <c r="N114" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O114" s="24"/>
     </row>
@@ -7377,16 +7474,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
@@ -7397,7 +7494,7 @@
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O115" s="24"/>
     </row>
@@ -7406,16 +7503,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
@@ -7426,7 +7523,7 @@
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
       <c r="N116" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O116" s="24"/>
     </row>
@@ -7435,16 +7532,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="21"/>
@@ -7455,7 +7552,7 @@
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O117" s="24"/>
     </row>
@@ -7464,16 +7561,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="21"/>
@@ -7484,7 +7581,7 @@
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O118" s="24"/>
     </row>
@@ -7493,16 +7590,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="21"/>
@@ -7513,7 +7610,7 @@
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O119" s="24"/>
     </row>
@@ -7522,16 +7619,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="21"/>
@@ -7542,7 +7639,7 @@
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
       <c r="N120" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O120" s="24"/>
     </row>
@@ -7551,16 +7648,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="21"/>
@@ -7571,7 +7668,7 @@
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
       <c r="N121" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O121" s="24"/>
     </row>
@@ -7580,16 +7677,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="21"/>
@@ -7600,7 +7697,7 @@
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O122" s="24"/>
     </row>
@@ -7609,16 +7706,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="21"/>
@@ -7629,7 +7726,7 @@
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
       <c r="N123" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O123" s="24"/>
     </row>
@@ -7638,16 +7735,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="21"/>
@@ -7658,7 +7755,7 @@
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
       <c r="N124" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O124" s="24"/>
     </row>
@@ -7667,16 +7764,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="21"/>
@@ -7687,7 +7784,7 @@
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
       <c r="N125" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O125" s="24"/>
     </row>
@@ -7696,16 +7793,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
@@ -7716,7 +7813,7 @@
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
       <c r="N126" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O126" s="24"/>
     </row>
@@ -7725,16 +7822,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="21"/>
@@ -7745,7 +7842,7 @@
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
       <c r="N127" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O127" s="24"/>
     </row>
@@ -7754,16 +7851,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="21"/>
@@ -7774,7 +7871,7 @@
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
       <c r="N128" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O128" s="24"/>
     </row>
@@ -7783,16 +7880,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="21"/>
@@ -7803,7 +7900,7 @@
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
       <c r="N129" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O129" s="24"/>
     </row>
@@ -7812,16 +7909,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
@@ -7832,7 +7929,7 @@
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
       <c r="N130" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O130" s="24"/>
     </row>
@@ -7841,16 +7938,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
@@ -7861,7 +7958,7 @@
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
       <c r="N131" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O131" s="24"/>
     </row>
@@ -7870,16 +7967,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="21"/>
@@ -7890,7 +7987,7 @@
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
       <c r="N132" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O132" s="24"/>
     </row>
@@ -7899,16 +7996,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="21"/>
@@ -7919,7 +8016,7 @@
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
       <c r="N133" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O133" s="24"/>
     </row>
@@ -7928,16 +8025,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="21"/>
@@ -7948,7 +8045,7 @@
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
       <c r="N134" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O134" s="24"/>
     </row>
@@ -7957,16 +8054,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F135" s="20"/>
       <c r="G135" s="21"/>
@@ -7977,7 +8074,7 @@
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
       <c r="N135" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O135" s="24"/>
     </row>
@@ -7986,16 +8083,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="21"/>
@@ -8006,7 +8103,7 @@
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
       <c r="N136" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O136" s="24"/>
     </row>
@@ -8015,16 +8112,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="21"/>
@@ -8035,7 +8132,7 @@
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
       <c r="N137" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O137" s="24"/>
     </row>
@@ -8044,16 +8141,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="21"/>
@@ -8064,7 +8161,7 @@
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
       <c r="N138" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O138" s="24"/>
     </row>
@@ -8073,16 +8170,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -8093,7 +8190,7 @@
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
       <c r="N139" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O139" s="24"/>
     </row>
@@ -8102,16 +8199,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="21"/>
@@ -8122,7 +8219,7 @@
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
       <c r="N140" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O140" s="24"/>
     </row>
@@ -8131,16 +8228,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="21"/>
@@ -8151,7 +8248,7 @@
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
       <c r="N141" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O141" s="24"/>
     </row>
@@ -8160,16 +8257,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="21"/>
@@ -8180,7 +8277,7 @@
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
       <c r="N142" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O142" s="24"/>
     </row>
@@ -8189,16 +8286,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="21"/>
@@ -8209,7 +8306,7 @@
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
       <c r="N143" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O143" s="24"/>
     </row>
@@ -8218,16 +8315,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144" s="21"/>
@@ -8238,7 +8335,7 @@
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
       <c r="N144" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O144" s="24"/>
     </row>
@@ -8247,16 +8344,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="21"/>
@@ -8267,7 +8364,7 @@
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
       <c r="N145" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O145" s="24"/>
     </row>
@@ -8276,16 +8373,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F146" s="20"/>
       <c r="G146" s="21"/>
@@ -8296,7 +8393,7 @@
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
       <c r="N146" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O146" s="24"/>
     </row>
@@ -8305,16 +8402,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F147" s="20"/>
       <c r="G147" s="21"/>
@@ -8325,7 +8422,7 @@
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
       <c r="N147" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O147" s="24"/>
     </row>
@@ -18530,100 +18627,100 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>310</v>
-      </c>
       <c r="D3" s="33" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
@@ -19638,26 +19735,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673DCFE-C9E6-4B0E-8799-67386B792793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97DFAD-84DF-4C41-B34F-61D3F8E2C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3950,7 +3950,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="23" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="O19" s="24"/>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="23" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="O20" s="24"/>
     </row>
@@ -4508,7 +4508,7 @@
         <v>402</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="O21" s="24"/>
     </row>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="23" t="s">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="O22" s="24"/>
     </row>

--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97DFAD-84DF-4C41-B34F-61D3F8E2C20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFC3F13-4291-4C6D-B3E5-6ECDD5DE7D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="414">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -3947,10 +3947,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4423,9 +4423,7 @@
         <v>317</v>
       </c>
       <c r="M19" s="22"/>
-      <c r="N19" s="23" t="s">
-        <v>319</v>
-      </c>
+      <c r="N19" s="23"/>
       <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1">
@@ -4464,9 +4462,7 @@
         <v>317</v>
       </c>
       <c r="M20" s="22"/>
-      <c r="N20" s="23" t="s">
-        <v>319</v>
-      </c>
+      <c r="N20" s="23"/>
       <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:15" ht="156" customHeight="1">
@@ -4507,9 +4503,7 @@
       <c r="M21" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="N21" s="23" t="s">
-        <v>319</v>
-      </c>
+      <c r="N21" s="23"/>
       <c r="O21" s="24"/>
     </row>
     <row r="22" spans="1:15" ht="145.5" customHeight="1">
@@ -4548,9 +4542,7 @@
         <v>317</v>
       </c>
       <c r="M22" s="22"/>
-      <c r="N22" s="23" t="s">
-        <v>319</v>
-      </c>
+      <c r="N22" s="23"/>
       <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1">

--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE453350-8F7E-4A99-86D5-AA5631DC640D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91180C3F-D3AE-4CB2-BFB1-A543F7530B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1904,10 +1904,6 @@
     <t>Sezione "observation" non gestita da applicativo</t>
   </si>
   <si>
-    <t>Errore nella validazione del documento 
-Richiesta annullata: Timeout dell'operazione.</t>
-  </si>
-  <si>
     <t>e4ad04e62419c347</t>
   </si>
   <si>
@@ -1970,9 +1966,6 @@
   </si>
   <si>
     <t>2023-01-30T18:13:02Z</t>
-  </si>
-  <si>
-    <t>subject_application_vendor: AGFA_GEVAERT_SPA</t>
   </si>
   <si>
     <t>subject_application_id: ELEFANTE.NET</t>
@@ -2058,6 +2051,12 @@
   </si>
   <si>
     <t>AGFA GEVAERT SPA</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: AGFA GEVAERT SPA</t>
+  </si>
+  <si>
+    <t>Il sistema resta in attesa per un numero di secondi configurabile. Dopo questo tempo, viene mostrato al medico l'errore: "Errore nella validazione del documento. Richiesta annullata: Timeout dell'operazione".  Viene quindi data possibilità all'utente di interrompere il processo oppure di riprovare la validazione, oppure di procedere con la firma digitale senza validazione. In quest'ultimo caso, il pdf risultante avrà comunque al suo interno il cda2</t>
   </si>
 </sst>
 </file>
@@ -2624,6 +2623,12 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2634,12 +2639,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4011,10 +4010,10 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4049,10 +4048,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="46"/>
-      <c r="C2" s="54" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="55"/>
+      <c r="C2" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -4065,12 +4064,12 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="53" t="s">
-        <v>394</v>
+      <c r="B3" s="50"/>
+      <c r="C3" s="55" t="s">
+        <v>392</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="8"/>
@@ -4085,10 +4084,10 @@
       <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="53" t="s">
-        <v>393</v>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
+        <v>408</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="2"/>
@@ -4104,10 +4103,10 @@
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
-        <v>395</v>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
+        <v>393</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="8"/>
@@ -4473,7 +4472,7 @@
         <v>44953</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>360</v>
@@ -4512,7 +4511,7 @@
         <v>44953</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>362</v>
@@ -4557,7 +4556,7 @@
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="24"/>
@@ -4588,7 +4587,7 @@
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="24"/>
@@ -4995,7 +4994,7 @@
         <v>44957</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H37" s="21" t="s">
         <v>365</v>
@@ -5185,16 +5184,16 @@
         <v>44957</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H43" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" s="22" t="s">
         <v>375</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>376</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>84</v>
@@ -5375,16 +5374,16 @@
         <v>44957</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H49" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="I49" s="21" t="s">
-        <v>373</v>
-      </c>
       <c r="J49" s="22" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>84</v>
@@ -5393,7 +5392,7 @@
         <v>317</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>84</v>
@@ -6174,7 +6173,7 @@
         <v>44953</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H76" s="21" t="s">
         <v>320</v>
@@ -6183,7 +6182,7 @@
         <v>321</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K76" s="22" t="s">
         <v>84</v>
@@ -6219,7 +6218,7 @@
         <v>44956</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H77" s="21" t="s">
         <v>322</v>
@@ -6228,7 +6227,7 @@
         <v>323</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K77" s="22" t="s">
         <v>84</v>
@@ -6264,7 +6263,7 @@
         <v>44956</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H78" s="21" t="s">
         <v>324</v>
@@ -6273,7 +6272,7 @@
         <v>325</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>84</v>
@@ -6309,7 +6308,7 @@
         <v>44956</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H79" s="21" t="s">
         <v>326</v>
@@ -6318,7 +6317,7 @@
         <v>327</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>84</v>
@@ -6354,7 +6353,7 @@
         <v>44956</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H80" s="21" t="s">
         <v>328</v>
@@ -6363,7 +6362,7 @@
         <v>329</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K80" s="22" t="s">
         <v>84</v>
@@ -6399,7 +6398,7 @@
         <v>44956</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H81" s="21" t="s">
         <v>330</v>
@@ -6408,7 +6407,7 @@
         <v>331</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K81" s="22" t="s">
         <v>84</v>
@@ -6444,7 +6443,7 @@
         <v>44956</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H82" s="21" t="s">
         <v>332</v>
@@ -6453,7 +6452,7 @@
         <v>333</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K82" s="22" t="s">
         <v>84</v>
@@ -6491,7 +6490,7 @@
         <v>44956</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H83" s="21" t="s">
         <v>335</v>
@@ -6500,7 +6499,7 @@
         <v>336</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K83" s="22" t="s">
         <v>84</v>
@@ -6536,7 +6535,7 @@
         <v>44956</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H84" s="21" t="s">
         <v>337</v>
@@ -6545,7 +6544,7 @@
         <v>338</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K84" s="22" t="s">
         <v>84</v>
@@ -6581,7 +6580,7 @@
         <v>44956</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H85" s="21" t="s">
         <v>339</v>
@@ -6590,7 +6589,7 @@
         <v>340</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K85" s="22" t="s">
         <v>84</v>
@@ -6626,7 +6625,7 @@
         <v>44956</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>341</v>
@@ -6635,7 +6634,7 @@
         <v>342</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K86" s="22" t="s">
         <v>84</v>
@@ -6904,7 +6903,7 @@
         <v>44956</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H94" s="21" t="s">
         <v>344</v>
@@ -6913,7 +6912,7 @@
         <v>345</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>84</v>

--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91180C3F-D3AE-4CB2-BFB1-A543F7530B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85AD1BE-09A2-453E-ABE8-0244199EA613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -2056,7 +2056,7 @@
     <t>subject_application_vendor: AGFA GEVAERT SPA</t>
   </si>
   <si>
-    <t>Il sistema resta in attesa per un numero di secondi configurabile. Dopo questo tempo, viene mostrato al medico l'errore: "Errore nella validazione del documento. Richiesta annullata: Timeout dell'operazione".  Viene quindi data possibilità all'utente di interrompere il processo oppure di riprovare la validazione, oppure di procedere con la firma digitale senza validazione. In quest'ultimo caso, il pdf risultante avrà comunque al suo interno il cda2</t>
+    <t>Il sistema resta in attesa per un numero di secondi configurabile. Dopo questo tempo, viene mostrato al medico l'errore: "Errore nella validazione del documento. Richiesta annullata: Timeout dell'operazione".  Viene quindi data possibilità all'utente di interrompere il processo oppure di riprovare la validazione, oppure di procedere con la firma digitale senza validazione. In quest'ultimo caso, il pdf risultante avrà comunque al suo interno il cda2, il referto firmato digitalmente viene inviato al repository senza validazione. Per essere poi conferito all'FSE, dovrà essere sottoposto alla validazione dal repository.</t>
   </si>
 </sst>
 </file>
@@ -4010,7 +4010,7 @@
   <dimension ref="A1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="J49" sqref="J49"/>

--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\ACCREDITAMENTO_RSA_2025\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6EBFA-D628-4F6F-B4C5-AF59C5EDA8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD885D6-B351-4CCA-8D96-05DA1B8FCABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,34 +841,34 @@
     <t>Errore viene riportato all'utente che puo' riprovare operazione di invio</t>
   </si>
   <si>
-    <t>0034c96077d535ce8c6fd639118cd831</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.1d8f3ba668e95493e74ed7ec914196ef60489bb764154156661920c4701f0023.2d048daa84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>AGFA GEVAERT SPA</t>
   </si>
   <si>
     <t>Nella sezione "Storia Clinica", l'applicativo gestisce solo la parte testuale (tag &lt;text&gt;) e non gestisce la sotto-sezione "entry".</t>
   </si>
   <si>
-    <t>f2610c4fbb89a2388c355ded20662614</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.47eeef6356ef7f0fb5683c7e6df64ecd058a76899cd8eb0d8a75e799c6743fbb.c24bb755ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-08-26T16:57:07Z</t>
   </si>
   <si>
     <t>2025-08-26T22:10:12Z</t>
   </si>
   <si>
-    <t>2025-08-26T23:22:10Z</t>
-  </si>
-  <si>
-    <t>2025-08-26T11:45:35Z</t>
+    <t>2025-09-10T12:16:05Z</t>
+  </si>
+  <si>
+    <t>727b84fd4819ac030dc346f3927ff220</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.c11e344d53467679285a8e0ef73f0bcd3bc7cb97f8ad6c2b84ce235c41ef629a.c983b4b564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-10T12:26:55Z</t>
+  </si>
+  <si>
+    <t>012cab0bb282cd436f328f205b3a5d1a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.a6d535e67459b280fb765cbb20bea1fe8ef24834ebbc24999e838b7198f2c3f9.63bd0b6e84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2924,14 +2924,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W615"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2978,7 +2977,7 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" s="47"/>
       <c r="F2" s="6"/>
@@ -3218,7 +3217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>31</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>32</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>39</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>40</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>45895</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="39"/>
@@ -3461,7 +3460,7 @@
         <v>45895</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="39"/>
@@ -3500,7 +3499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>76</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>78</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
         <v>79</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>80</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
         <v>81</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>83</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33">
         <v>84</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>85</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
         <v>86</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>87</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
         <v>88</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>111</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -3953,7 +3952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>89</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>111</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35"/>
@@ -3996,7 +3995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
         <v>90</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>111</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -4039,7 +4038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
         <v>91</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>111</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
@@ -4082,7 +4081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33">
         <v>92</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>93</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
         <v>152</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <v>154</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33">
         <v>155</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>156</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33">
         <v>159</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>160</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33">
         <v>161</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>162</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33">
         <v>163</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33">
         <v>164</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>111</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
@@ -4576,7 +4575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33">
         <v>165</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>111</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M42" s="35"/>
       <c r="N42" s="35"/>
@@ -4619,7 +4618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>166</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>111</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
@@ -4662,7 +4661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33">
         <v>167</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>111</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
@@ -4705,7 +4704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>168</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33">
         <v>169</v>
       </c>
@@ -4804,16 +4803,16 @@
         <v>153</v>
       </c>
       <c r="F47" s="34">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J47" s="35" t="s">
         <v>51</v>
@@ -4834,7 +4833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33">
         <v>449</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <v>461</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33">
         <v>462</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
         <v>468</v>
       </c>
@@ -5015,16 +5014,16 @@
         <v>170</v>
       </c>
       <c r="F52" s="34">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="G52" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="39" t="s">
         <v>197</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>189</v>
       </c>
       <c r="J52" s="35" t="s">
         <v>51</v>
@@ -5045,7 +5044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>472</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33">
         <v>474</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
         <v>475</v>
       </c>
@@ -9185,13 +9184,7 @@
     <row r="614" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="615" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W55" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W55" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -11487,6 +11480,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11744,15 +11746,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -11771,6 +11764,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11789,14 +11790,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111AGFAHEALTHC/AGFA_GEVAERT_SPA/ELEFANTE.NET/2/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Manuali\Common\IntegrazioneFSE-ConfidentialityCode\FSE 2.0\REPOSITORY\it-fse-accreditamento\GATEWAY\A1#111AGFAHEALTHC\AGFA_GEVAERT_SPA\ELEFANTE.NET\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD885D6-B351-4CCA-8D96-05DA1B8FCABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040AA6C-BDD8-4C83-98BD-C5D1B4DD71D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,22 +853,22 @@
     <t>2025-08-26T22:10:12Z</t>
   </si>
   <si>
-    <t>2025-09-10T12:16:05Z</t>
-  </si>
-  <si>
-    <t>727b84fd4819ac030dc346f3927ff220</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.c11e344d53467679285a8e0ef73f0bcd3bc7cb97f8ad6c2b84ce235c41ef629a.c983b4b564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-09-10T12:26:55Z</t>
-  </si>
-  <si>
-    <t>012cab0bb282cd436f328f205b3a5d1a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.a6d535e67459b280fb765cbb20bea1fe8ef24834ebbc24999e838b7198f2c3f9.63bd0b6e84^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-09-17T12:10:41Z</t>
+  </si>
+  <si>
+    <t>169da03a20138ff64e75aaead075f134</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.95ecfc757434335bf416e4aaa03738eb707b374dec04fd3d59c8ff6a9faf84a6.724a5ba194^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-17T11:11:00Z</t>
+  </si>
+  <si>
+    <t>095215feff220c85f3cb5172f665558c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.6142661f46108a8fef8bfcade331c01abc6001820d0d0a9b456e7fa27a05f2ed.00dfc783df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2927,10 +2927,10 @@
   <dimension ref="A1:W615"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
+      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4803,7 @@
         <v>153</v>
       </c>
       <c r="F47" s="34">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>192</v>
@@ -5014,7 +5014,7 @@
         <v>170</v>
       </c>
       <c r="F52" s="34">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="G52" s="41" t="s">
         <v>195</v>
@@ -11468,6 +11468,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -11477,15 +11486,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11747,6 +11747,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11759,14 +11767,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
